--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>968431.2958724303</v>
+        <v>1015143.139471568</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18157355.41581893</v>
+        <v>16877859.47655641</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2113478.654365224</v>
+        <v>1396887.814324548</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6688042.357718639</v>
+        <v>6944676.479133798</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>73.81556132794955</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>343.497558846888</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
@@ -671,7 +673,7 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -707,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
@@ -823,7 +825,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -832,7 +834,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>203.2613507217563</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -880,10 +882,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>219.5141406214753</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,16 +898,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>371.7788876475178</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>195.1569564646409</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -1105,16 +1107,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>131.9969996527475</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>125.6544692828923</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
@@ -1145,13 +1147,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>209.4852547016832</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>202.3889873441468</v>
       </c>
     </row>
     <row r="9">
@@ -1300,7 +1302,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1342,7 +1344,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1351,13 +1353,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>125.6544692828927</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>13.01313443288583</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1372,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>97.36454674747804</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>195.1569564646411</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1534,7 +1536,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1543,7 +1545,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>47.61404849749913</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1619,10 +1621,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1664,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>195.5695779437723</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>272.5149084496583</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1777,10 +1779,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022785</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>155.2022955251545</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1859,7 +1861,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2002,13 +2004,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>39.5975448024402</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2020,7 +2022,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2491,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>18.05677735225717</v>
+        <v>18.05677735225841</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2722,13 +2724,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>39.57637241135472</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2776,7 +2778,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>103.3456594571955</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2962,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>3.139541480023854</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3010,10 +3012,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>125.1716544454844</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>131.9969996527466</v>
       </c>
       <c r="U34" t="n">
-        <v>153.2006427344284</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3433,7 +3435,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>105.2234111170471</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3521,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3721,7 +3723,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>61.08641542222974</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3737,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>253.7048991477297</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>313.9815894681123</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3907,16 +3909,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>14.14416275345401</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3983,16 +3985,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>117.6503160851169</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4040,10 +4042,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>274.9488937559349</v>
       </c>
     </row>
     <row r="45">
@@ -4147,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>73.01514676193524</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1271.488472283357</v>
+        <v>2006.541971984245</v>
       </c>
       <c r="C2" t="n">
-        <v>1237.386403507184</v>
+        <v>1568.399499167669</v>
       </c>
       <c r="D2" t="n">
-        <v>801.4766186816287</v>
+        <v>1221.432268009196</v>
       </c>
       <c r="E2" t="n">
-        <v>367.7018738399239</v>
+        <v>787.6575231674911</v>
       </c>
       <c r="F2" t="n">
-        <v>343.8748482895357</v>
+        <v>763.830497617103</v>
       </c>
       <c r="G2" t="n">
-        <v>343.8748482895357</v>
+        <v>362.4326662403669</v>
       </c>
       <c r="H2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J2" t="n">
-        <v>489.9993811856698</v>
+        <v>379.6939845915884</v>
       </c>
       <c r="K2" t="n">
-        <v>489.9993811856698</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="L2" t="n">
-        <v>489.9993811856698</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="M2" t="n">
-        <v>489.9993811856698</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="N2" t="n">
-        <v>666.6506660403358</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="O2" t="n">
-        <v>1344.116250983141</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.581835925947</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q2" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R2" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S2" t="n">
-        <v>2653.582812821435</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T2" t="n">
-        <v>2433.515585694473</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.293283011491</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V2" t="n">
-        <v>2174.293283011491</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="W2" t="n">
-        <v>2173.478232462928</v>
+        <v>3260.270129590189</v>
       </c>
       <c r="X2" t="n">
-        <v>1754.335769042239</v>
+        <v>2841.1276661695</v>
       </c>
       <c r="Y2" t="n">
-        <v>1346.049645341892</v>
+        <v>2432.841542469153</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1580.166670150082</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C3" t="n">
-        <v>1473.710208986724</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.619920133277</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E3" t="n">
-        <v>1284.499505460231</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F3" t="n">
-        <v>1201.115667076393</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G3" t="n">
-        <v>1115.730577342577</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H3" t="n">
-        <v>1073.994925158789</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I3" t="n">
-        <v>1100.058598319247</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J3" t="n">
-        <v>1100.058598319247</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K3" t="n">
-        <v>1100.058598319247</v>
+        <v>754.0360317539604</v>
       </c>
       <c r="L3" t="n">
-        <v>1100.058598319247</v>
+        <v>1661.154613838301</v>
       </c>
       <c r="M3" t="n">
-        <v>1100.058598319247</v>
+        <v>1661.154613838301</v>
       </c>
       <c r="N3" t="n">
-        <v>1100.058598319247</v>
+        <v>1661.154613838301</v>
       </c>
       <c r="O3" t="n">
-        <v>1401.857384968378</v>
+        <v>1661.154613838301</v>
       </c>
       <c r="P3" t="n">
-        <v>2079.322969911183</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="Q3" t="n">
-        <v>2620.061908543259</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="R3" t="n">
-        <v>2737.234686637598</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S3" t="n">
-        <v>2673.779249085981</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T3" t="n">
-        <v>2543.600605416583</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U3" t="n">
-        <v>2367.264058416551</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V3" t="n">
-        <v>2168.14654047855</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W3" t="n">
-        <v>1982.823786211744</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X3" t="n">
-        <v>1827.956350450624</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y3" t="n">
-        <v>1701.470571229845</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1029.875233597417</v>
+        <v>1012.458497985839</v>
       </c>
       <c r="C4" t="n">
-        <v>857.313522080642</v>
+        <v>839.8967864690638</v>
       </c>
       <c r="D4" t="n">
-        <v>691.4355292821647</v>
+        <v>674.0187936705865</v>
       </c>
       <c r="E4" t="n">
-        <v>691.4355292821647</v>
+        <v>504.2607899213239</v>
       </c>
       <c r="F4" t="n">
-        <v>514.7284752439209</v>
+        <v>327.5537358830801</v>
       </c>
       <c r="G4" t="n">
-        <v>349.1372002697486</v>
+        <v>161.9624609089078</v>
       </c>
       <c r="H4" t="n">
-        <v>209.2350259601232</v>
+        <v>161.9624609089078</v>
       </c>
       <c r="I4" t="n">
-        <v>120.5750767347985</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J4" t="n">
-        <v>207.1547618994884</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K4" t="n">
-        <v>481.9132164706239</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L4" t="n">
-        <v>900.123098238585</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M4" t="n">
-        <v>1359.606965419498</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N4" t="n">
-        <v>1801.865768577142</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O4" t="n">
-        <v>2221.535017802924</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P4" t="n">
-        <v>2569.041911773266</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q4" t="n">
-        <v>2737.234686637598</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R4" t="n">
-        <v>2737.234686637598</v>
+        <v>2668.544300291755</v>
       </c>
       <c r="S4" t="n">
-        <v>2737.234686637598</v>
+        <v>2509.302931589751</v>
       </c>
       <c r="T4" t="n">
-        <v>2531.920190959056</v>
+        <v>2263.423485168206</v>
       </c>
       <c r="U4" t="n">
-        <v>2253.487190212161</v>
+        <v>1984.990484421312</v>
       </c>
       <c r="V4" t="n">
-        <v>1966.531682082592</v>
+        <v>1698.034976291742</v>
       </c>
       <c r="W4" t="n">
-        <v>1694.505277668884</v>
+        <v>1426.008571878034</v>
       </c>
       <c r="X4" t="n">
-        <v>1449.113523002296</v>
+        <v>1204.277116704826</v>
       </c>
       <c r="Y4" t="n">
-        <v>1221.693852316404</v>
+        <v>1204.277116704826</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>515.70967081658</v>
+        <v>1809.413733131072</v>
       </c>
       <c r="C5" t="n">
-        <v>140.1754408695924</v>
+        <v>1371.271260314496</v>
       </c>
       <c r="D5" t="n">
-        <v>108.3060600844409</v>
+        <v>935.3614754889402</v>
       </c>
       <c r="E5" t="n">
-        <v>78.57171928314017</v>
+        <v>501.5867306472354</v>
       </c>
       <c r="F5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="G5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="H5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J5" t="n">
-        <v>54.74469373275195</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K5" t="n">
-        <v>54.74469373275195</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L5" t="n">
-        <v>54.74469373275195</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="M5" t="n">
-        <v>54.74469373275195</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="N5" t="n">
-        <v>666.6506660403358</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="O5" t="n">
-        <v>1344.116250983141</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.581835925947</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R5" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S5" t="n">
-        <v>2653.582812821435</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T5" t="n">
-        <v>2433.515585694473</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U5" t="n">
-        <v>2174.293283011491</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V5" t="n">
-        <v>2174.293283011491</v>
+        <v>3467.997345325983</v>
       </c>
       <c r="W5" t="n">
-        <v>1769.437828422524</v>
+        <v>3063.141890737016</v>
       </c>
       <c r="X5" t="n">
-        <v>1350.295365001834</v>
+        <v>2643.999427316327</v>
       </c>
       <c r="Y5" t="n">
-        <v>942.0092413014878</v>
+        <v>2235.71330361598</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C6" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D6" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E6" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F6" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G6" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H6" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I6" t="n">
-        <v>80.80836689320955</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J6" t="n">
-        <v>405.3666918594219</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K6" t="n">
-        <v>405.3666918594219</v>
+        <v>754.0360317539604</v>
       </c>
       <c r="L6" t="n">
-        <v>405.3666918594219</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M6" t="n">
-        <v>405.3666918594219</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N6" t="n">
-        <v>405.3666918594219</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O6" t="n">
-        <v>405.3666918594219</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P6" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q6" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R6" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S6" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T6" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U6" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V6" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W6" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X6" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y6" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1133.802854344633</v>
+        <v>1152.360672295464</v>
       </c>
       <c r="C7" t="n">
-        <v>961.2411428278582</v>
+        <v>979.7989607786893</v>
       </c>
       <c r="D7" t="n">
-        <v>795.3631500293809</v>
+        <v>813.920967980212</v>
       </c>
       <c r="E7" t="n">
-        <v>625.6051462801182</v>
+        <v>644.1629642309493</v>
       </c>
       <c r="F7" t="n">
-        <v>448.8980922418745</v>
+        <v>467.4559101927056</v>
       </c>
       <c r="G7" t="n">
-        <v>283.3068172677021</v>
+        <v>301.8646352185332</v>
       </c>
       <c r="H7" t="n">
-        <v>143.4046429580766</v>
+        <v>161.9624609089078</v>
       </c>
       <c r="I7" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J7" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K7" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L7" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M7" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N7" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O7" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P7" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q7" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R7" t="n">
-        <v>2649.986482340924</v>
+        <v>2668.544300291755</v>
       </c>
       <c r="S7" t="n">
-        <v>2490.74511363892</v>
+        <v>2509.302931589751</v>
       </c>
       <c r="T7" t="n">
-        <v>2357.414810959378</v>
+        <v>2509.302931589751</v>
       </c>
       <c r="U7" t="n">
-        <v>2357.414810959378</v>
+        <v>2230.869930842856</v>
       </c>
       <c r="V7" t="n">
-        <v>2070.459302829808</v>
+        <v>1943.914422713287</v>
       </c>
       <c r="W7" t="n">
-        <v>1798.4328984161</v>
+        <v>1816.990716366931</v>
       </c>
       <c r="X7" t="n">
-        <v>1553.041143749512</v>
+        <v>1571.598961700343</v>
       </c>
       <c r="Y7" t="n">
-        <v>1325.62147306362</v>
+        <v>1344.179291014452</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1675.945665696621</v>
+        <v>2210.394775134949</v>
       </c>
       <c r="C8" t="n">
-        <v>1237.803192880044</v>
+        <v>1772.252302318372</v>
       </c>
       <c r="D8" t="n">
-        <v>1205.933812094893</v>
+        <v>1336.342517492816</v>
       </c>
       <c r="E8" t="n">
-        <v>772.1590672531879</v>
+        <v>902.5677726511115</v>
       </c>
       <c r="F8" t="n">
-        <v>344.2916376623957</v>
+        <v>474.7003430603193</v>
       </c>
       <c r="G8" t="n">
-        <v>344.2916376623957</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H8" t="n">
-        <v>55.16148310561195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I8" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J8" t="n">
-        <v>54.74469373275195</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K8" t="n">
-        <v>704.837931809182</v>
+        <v>508.557199136501</v>
       </c>
       <c r="L8" t="n">
-        <v>704.837931809182</v>
+        <v>508.557199136501</v>
       </c>
       <c r="M8" t="n">
-        <v>1382.303516751987</v>
+        <v>508.557199136501</v>
       </c>
       <c r="N8" t="n">
-        <v>2059.769101694793</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O8" t="n">
-        <v>2737.234686637598</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P8" t="n">
-        <v>2737.234686637598</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q8" t="n">
-        <v>2737.234686637598</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R8" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S8" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T8" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U8" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V8" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="W8" t="n">
-        <v>2525.63341926216</v>
+        <v>3260.270129590189</v>
       </c>
       <c r="X8" t="n">
-        <v>2106.490955841471</v>
+        <v>2841.1276661695</v>
       </c>
       <c r="Y8" t="n">
-        <v>1698.204832141125</v>
+        <v>2636.694345619856</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C9" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D9" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E9" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F9" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G9" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H9" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I9" t="n">
-        <v>54.74469373275195</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J9" t="n">
-        <v>54.74469373275195</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="K9" t="n">
-        <v>54.74469373275195</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="L9" t="n">
-        <v>732.2102786755574</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="M9" t="n">
-        <v>1409.675863618363</v>
+        <v>1006.484766928382</v>
       </c>
       <c r="N9" t="n">
-        <v>1717.984455211561</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="O9" t="n">
-        <v>1717.984455211561</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="P9" t="n">
-        <v>1717.984455211561</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="Q9" t="n">
-        <v>1717.984455211561</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R9" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S9" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T9" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U9" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V9" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W9" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X9" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y9" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1133.802854344633</v>
+        <v>975.6536182572206</v>
       </c>
       <c r="C10" t="n">
-        <v>961.2411428278582</v>
+        <v>803.0919067404456</v>
       </c>
       <c r="D10" t="n">
-        <v>795.3631500293809</v>
+        <v>637.2139139419683</v>
       </c>
       <c r="E10" t="n">
-        <v>625.6051462801182</v>
+        <v>467.4559101927056</v>
       </c>
       <c r="F10" t="n">
-        <v>448.8980922418745</v>
+        <v>467.4559101927056</v>
       </c>
       <c r="G10" t="n">
-        <v>283.3068172677021</v>
+        <v>301.8646352185332</v>
       </c>
       <c r="H10" t="n">
-        <v>143.4046429580766</v>
+        <v>161.9624609089078</v>
       </c>
       <c r="I10" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J10" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K10" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L10" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M10" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N10" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O10" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P10" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q10" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R10" t="n">
-        <v>2649.986482340924</v>
+        <v>2668.544300291755</v>
       </c>
       <c r="S10" t="n">
-        <v>2490.74511363892</v>
+        <v>2509.302931589751</v>
       </c>
       <c r="T10" t="n">
-        <v>2490.74511363892</v>
+        <v>2263.423485168206</v>
       </c>
       <c r="U10" t="n">
-        <v>2212.312112892026</v>
+        <v>1984.990484421312</v>
       </c>
       <c r="V10" t="n">
-        <v>1925.356604762456</v>
+        <v>1698.034976291742</v>
       </c>
       <c r="W10" t="n">
-        <v>1798.4328984161</v>
+        <v>1426.008571878034</v>
       </c>
       <c r="X10" t="n">
-        <v>1553.041143749512</v>
+        <v>1180.616817211446</v>
       </c>
       <c r="Y10" t="n">
-        <v>1325.62147306362</v>
+        <v>1167.472236976208</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>153.0927207504066</v>
+        <v>2006.541971984245</v>
       </c>
       <c r="C11" t="n">
-        <v>54.74469373275195</v>
+        <v>1568.399499167669</v>
       </c>
       <c r="D11" t="n">
-        <v>54.74469373275195</v>
+        <v>1132.489714342113</v>
       </c>
       <c r="E11" t="n">
-        <v>54.74469373275195</v>
+        <v>698.7149695004082</v>
       </c>
       <c r="F11" t="n">
-        <v>54.74469373275195</v>
+        <v>270.8475399096159</v>
       </c>
       <c r="G11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="H11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J11" t="n">
-        <v>489.9993811856698</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K11" t="n">
-        <v>1167.464966128475</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L11" t="n">
-        <v>1167.464966128475</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="M11" t="n">
-        <v>1167.464966128475</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="N11" t="n">
-        <v>1167.464966128475</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="O11" t="n">
-        <v>1344.116250983141</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="P11" t="n">
-        <v>2021.581835925947</v>
+        <v>3078.335948012416</v>
       </c>
       <c r="Q11" t="n">
-        <v>2568.080621884541</v>
+        <v>3624.83473397101</v>
       </c>
       <c r="R11" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S11" t="n">
-        <v>2653.582812821435</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T11" t="n">
-        <v>2433.515585694473</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U11" t="n">
-        <v>2174.293283011491</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V11" t="n">
-        <v>1811.676332945317</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="W11" t="n">
-        <v>1406.82087835635</v>
+        <v>3260.270129590189</v>
       </c>
       <c r="X11" t="n">
-        <v>987.678414935661</v>
+        <v>2841.1276661695</v>
       </c>
       <c r="Y11" t="n">
-        <v>579.3922912353144</v>
+        <v>2432.841542469153</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C12" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D12" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E12" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F12" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G12" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H12" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I12" t="n">
-        <v>80.80836689320955</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J12" t="n">
-        <v>405.3666918594219</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K12" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L12" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M12" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N12" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O12" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P12" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q12" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R12" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S12" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T12" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V12" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W12" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X12" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y12" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>875.3849013700459</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C13" t="n">
-        <v>702.8231898532708</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D13" t="n">
-        <v>536.9451970547935</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E13" t="n">
-        <v>536.9451970547935</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F13" t="n">
-        <v>360.2381430165498</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G13" t="n">
-        <v>194.6468680423774</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H13" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I13" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J13" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K13" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L13" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M13" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N13" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O13" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P13" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q13" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R13" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S13" t="n">
-        <v>2623.30930515323</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T13" t="n">
-        <v>2377.429858731685</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U13" t="n">
-        <v>2098.99685798479</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V13" t="n">
-        <v>1812.041349855221</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W13" t="n">
-        <v>1540.014945441512</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X13" t="n">
-        <v>1294.623190774925</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y13" t="n">
-        <v>1067.203520089033</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2042.824638924325</v>
+        <v>1808.996943758212</v>
       </c>
       <c r="C14" t="n">
-        <v>2042.824638924325</v>
+        <v>1370.854470941636</v>
       </c>
       <c r="D14" t="n">
-        <v>1606.914854098769</v>
+        <v>934.9446861160802</v>
       </c>
       <c r="E14" t="n">
-        <v>1173.140109257064</v>
+        <v>501.1699412743753</v>
       </c>
       <c r="F14" t="n">
-        <v>745.2726796662719</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="G14" t="n">
-        <v>343.8748482895357</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J14" t="n">
-        <v>158.3391458505872</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K14" t="n">
-        <v>835.8047307933927</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L14" t="n">
-        <v>835.8047307933927</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="M14" t="n">
-        <v>835.8047307933927</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="N14" t="n">
-        <v>835.8047307933927</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="O14" t="n">
-        <v>1513.270315736198</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="P14" t="n">
-        <v>2190.735900679003</v>
+        <v>3078.335948012416</v>
       </c>
       <c r="Q14" t="n">
-        <v>2737.234686637598</v>
+        <v>3624.83473397101</v>
       </c>
       <c r="R14" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S14" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T14" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U14" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V14" t="n">
-        <v>2737.234686637598</v>
+        <v>3467.580555953123</v>
       </c>
       <c r="W14" t="n">
-        <v>2737.234686637598</v>
+        <v>3062.725101364156</v>
       </c>
       <c r="X14" t="n">
-        <v>2318.092223216909</v>
+        <v>2643.582637943467</v>
       </c>
       <c r="Y14" t="n">
-        <v>2042.824638924325</v>
+        <v>2235.29651424312</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C15" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D15" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E15" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F15" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G15" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H15" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I15" t="n">
-        <v>80.80836689320955</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J15" t="n">
-        <v>405.3666918594219</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K15" t="n">
-        <v>405.3666918594219</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L15" t="n">
-        <v>405.3666918594219</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M15" t="n">
-        <v>405.3666918594219</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N15" t="n">
-        <v>405.3666918594219</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O15" t="n">
-        <v>405.3666918594219</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P15" t="n">
-        <v>1060.072738485145</v>
+        <v>1243.647676289451</v>
       </c>
       <c r="Q15" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R15" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S15" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T15" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V15" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W15" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X15" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1045.142905119309</v>
+        <v>761.378527806567</v>
       </c>
       <c r="C16" t="n">
-        <v>872.5811936025335</v>
+        <v>588.816816289792</v>
       </c>
       <c r="D16" t="n">
-        <v>706.7032008040562</v>
+        <v>422.9388234913147</v>
       </c>
       <c r="E16" t="n">
-        <v>536.9451970547935</v>
+        <v>253.1808197420519</v>
       </c>
       <c r="F16" t="n">
-        <v>360.2381430165498</v>
+        <v>76.47376570380814</v>
       </c>
       <c r="G16" t="n">
-        <v>194.6468680423774</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H16" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I16" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J16" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K16" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L16" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M16" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N16" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O16" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P16" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q16" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R16" t="n">
-        <v>2671.404303635552</v>
+        <v>2668.544300291755</v>
       </c>
       <c r="S16" t="n">
-        <v>2671.404303635552</v>
+        <v>2509.302931589751</v>
       </c>
       <c r="T16" t="n">
-        <v>2425.524857214007</v>
+        <v>2263.423485168206</v>
       </c>
       <c r="U16" t="n">
-        <v>2268.754861734053</v>
+        <v>1984.990484421312</v>
       </c>
       <c r="V16" t="n">
-        <v>1981.799353604483</v>
+        <v>1698.034976291742</v>
       </c>
       <c r="W16" t="n">
-        <v>1709.772949190775</v>
+        <v>1426.008571878034</v>
       </c>
       <c r="X16" t="n">
-        <v>1464.381194524188</v>
+        <v>1180.616817211446</v>
       </c>
       <c r="Y16" t="n">
-        <v>1236.961523838296</v>
+        <v>953.1971465255542</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5522,7 +5524,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5540,25 +5542,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>750.3393363912985</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2683.3639582443</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2404.930957497405</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="20">
@@ -5762,10 +5764,10 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>3417.209496257024</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
@@ -5838,19 +5840,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M21" t="n">
-        <v>1300.985674363279</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N21" t="n">
-        <v>1300.985674363279</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5975,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6026,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>970.9960463903949</v>
+        <v>3365.117609755799</v>
       </c>
       <c r="C25" t="n">
-        <v>798.4343348736198</v>
+        <v>3192.555898239023</v>
       </c>
       <c r="D25" t="n">
-        <v>632.5563420751425</v>
+        <v>3026.677905440546</v>
       </c>
       <c r="E25" t="n">
-        <v>462.7983383258798</v>
+        <v>2856.919901691283</v>
       </c>
       <c r="F25" t="n">
-        <v>286.091284287636</v>
+        <v>2680.21284765304</v>
       </c>
       <c r="G25" t="n">
-        <v>120.5000093134636</v>
+        <v>2514.621572678867</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K25" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M25" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O25" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P25" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q25" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="T25" t="n">
-        <v>2473.041003752034</v>
+        <v>4867.162567117437</v>
       </c>
       <c r="U25" t="n">
-        <v>2194.608003005139</v>
+        <v>4588.729566370543</v>
       </c>
       <c r="V25" t="n">
-        <v>1907.65249487557</v>
+        <v>4301.774058240973</v>
       </c>
       <c r="W25" t="n">
-        <v>1635.626090461861</v>
+        <v>4029.747653827265</v>
       </c>
       <c r="X25" t="n">
-        <v>1390.234335795274</v>
+        <v>3784.355899160677</v>
       </c>
       <c r="Y25" t="n">
-        <v>1162.814665109382</v>
+        <v>3556.936228474786</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6263,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="27">
@@ -6306,19 +6308,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>242.1630145804051</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6451,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6500,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1602.717526820355</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3184.458419759167</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>3011.896708242392</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>2846.018715443915</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>2676.260711694652</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>2499.553657656408</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>2496.382403636182</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H31" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>5091.624192244353</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>4932.38282354235</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>4686.503377120805</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>4408.070376373911</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>4121.114868244342</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>3849.088463830633</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="X31" t="n">
-        <v>3603.696709164046</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>3376.277038478154</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6880,13 +6882,13 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2559.679081471576</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="U34" t="n">
         <v>2404.930957497405</v>
@@ -6923,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6944,7 +6946,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
         <v>2588.899621423627</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C39" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D39" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E39" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F39" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G39" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I39" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J39" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K39" t="n">
-        <v>452.8828383974496</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L39" t="n">
-        <v>452.8828383974496</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M39" t="n">
-        <v>452.8828383974496</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N39" t="n">
-        <v>452.8828383974496</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O39" t="n">
-        <v>452.8828383974496</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S39" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V39" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W39" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X39" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.659051657336</v>
+        <v>3575.440564248063</v>
       </c>
       <c r="C40" t="n">
-        <v>920.0973401405612</v>
+        <v>3402.878852731288</v>
       </c>
       <c r="D40" t="n">
-        <v>754.2193473420839</v>
+        <v>3237.000859932811</v>
       </c>
       <c r="E40" t="n">
-        <v>584.4613435928212</v>
+        <v>3067.242856183548</v>
       </c>
       <c r="F40" t="n">
-        <v>407.7542895545774</v>
+        <v>2890.535802145304</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>2724.944527171132</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J40" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="T40" t="n">
-        <v>2594.704009018975</v>
+        <v>4867.162567117437</v>
       </c>
       <c r="U40" t="n">
-        <v>2316.271008272081</v>
+        <v>4588.729566370543</v>
       </c>
       <c r="V40" t="n">
-        <v>2029.315500142511</v>
+        <v>4301.774058240973</v>
       </c>
       <c r="W40" t="n">
-        <v>1757.289095728803</v>
+        <v>4240.070608319529</v>
       </c>
       <c r="X40" t="n">
-        <v>1511.897341062215</v>
+        <v>3994.678853652942</v>
       </c>
       <c r="Y40" t="n">
-        <v>1284.477670376323</v>
+        <v>3767.25918296705</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2480.967111740901</v>
+        <v>1080.983618291964</v>
       </c>
       <c r="C41" t="n">
-        <v>2042.824638924325</v>
+        <v>1080.983618291964</v>
       </c>
       <c r="D41" t="n">
-        <v>1606.914854098769</v>
+        <v>1080.983618291964</v>
       </c>
       <c r="E41" t="n">
-        <v>1173.140109257064</v>
+        <v>1080.983618291964</v>
       </c>
       <c r="F41" t="n">
-        <v>745.2726796662719</v>
+        <v>763.830497617103</v>
       </c>
       <c r="G41" t="n">
-        <v>343.8748482895357</v>
+        <v>362.4326662403669</v>
       </c>
       <c r="H41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J41" t="n">
-        <v>489.9993811856698</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K41" t="n">
-        <v>1167.464966128475</v>
+        <v>228.1169872144811</v>
       </c>
       <c r="L41" t="n">
-        <v>1167.464966128475</v>
+        <v>1135.235569298822</v>
       </c>
       <c r="M41" t="n">
-        <v>1167.464966128475</v>
+        <v>1135.235569298822</v>
       </c>
       <c r="N41" t="n">
-        <v>1167.464966128475</v>
+        <v>2042.354151383163</v>
       </c>
       <c r="O41" t="n">
-        <v>1844.930551071281</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="P41" t="n">
-        <v>2190.735900679003</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q41" t="n">
-        <v>2737.234686637598</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R41" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S41" t="n">
-        <v>2737.234686637598</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T41" t="n">
-        <v>2737.234686637598</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="U41" t="n">
-        <v>2737.234686637598</v>
+        <v>3102.184180553048</v>
       </c>
       <c r="V41" t="n">
-        <v>2737.234686637598</v>
+        <v>2739.567230486874</v>
       </c>
       <c r="W41" t="n">
-        <v>2737.234686637598</v>
+        <v>2334.711775897908</v>
       </c>
       <c r="X41" t="n">
-        <v>2737.234686637598</v>
+        <v>1915.569312477218</v>
       </c>
       <c r="Y41" t="n">
-        <v>2737.234686637598</v>
+        <v>1507.283188776872</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C42" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D42" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E42" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F42" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G42" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H42" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I42" t="n">
-        <v>80.80836689320955</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J42" t="n">
-        <v>405.3666918594219</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K42" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L42" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M42" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N42" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O42" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P42" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q42" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R42" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S42" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T42" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V42" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W42" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X42" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y42" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>742.8207098557364</v>
+        <v>1152.360672295464</v>
       </c>
       <c r="C43" t="n">
-        <v>570.2589983389613</v>
+        <v>979.7989607786893</v>
       </c>
       <c r="D43" t="n">
-        <v>404.381005540484</v>
+        <v>813.920967980212</v>
       </c>
       <c r="E43" t="n">
-        <v>234.6230017912213</v>
+        <v>644.1629642309493</v>
       </c>
       <c r="F43" t="n">
-        <v>220.3359687069243</v>
+        <v>467.4559101927056</v>
       </c>
       <c r="G43" t="n">
-        <v>54.74469373275195</v>
+        <v>301.8646352185332</v>
       </c>
       <c r="H43" t="n">
-        <v>54.74469373275195</v>
+        <v>161.9624609089078</v>
       </c>
       <c r="I43" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J43" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K43" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L43" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M43" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N43" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O43" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P43" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q43" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R43" t="n">
-        <v>2649.986482340924</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S43" t="n">
-        <v>2490.74511363892</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="T43" t="n">
-        <v>2244.865667217376</v>
+        <v>2654.405629657103</v>
       </c>
       <c r="U43" t="n">
-        <v>1966.432666470481</v>
+        <v>2375.972628910209</v>
       </c>
       <c r="V43" t="n">
-        <v>1679.477158340911</v>
+        <v>2089.017120780639</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.450753927203</v>
+        <v>1816.990716366931</v>
       </c>
       <c r="X43" t="n">
-        <v>1162.058999260615</v>
+        <v>1571.598961700343</v>
       </c>
       <c r="Y43" t="n">
-        <v>934.6393285747235</v>
+        <v>1344.179291014452</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1302.253855599128</v>
+        <v>1774.484990309393</v>
       </c>
       <c r="C44" t="n">
-        <v>864.1113827825516</v>
+        <v>1336.342517492816</v>
       </c>
       <c r="D44" t="n">
-        <v>864.1113827825516</v>
+        <v>1336.342517492816</v>
       </c>
       <c r="E44" t="n">
-        <v>864.1113827825516</v>
+        <v>902.5677726511115</v>
       </c>
       <c r="F44" t="n">
-        <v>745.2726796662719</v>
+        <v>474.7003430603193</v>
       </c>
       <c r="G44" t="n">
-        <v>343.8748482895357</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H44" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I44" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J44" t="n">
-        <v>489.9993811856698</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K44" t="n">
-        <v>489.9993811856698</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L44" t="n">
-        <v>489.9993811856698</v>
+        <v>980.4210937679239</v>
       </c>
       <c r="M44" t="n">
-        <v>1167.464966128475</v>
+        <v>1850.888420010474</v>
       </c>
       <c r="N44" t="n">
-        <v>1844.930551071281</v>
+        <v>2758.007002094815</v>
       </c>
       <c r="O44" t="n">
-        <v>1844.930551071281</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="P44" t="n">
-        <v>2021.581835925947</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="Q44" t="n">
-        <v>2568.080621884541</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="R44" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S44" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T44" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U44" t="n">
-        <v>2478.012383954615</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V44" t="n">
-        <v>2115.395433888441</v>
+        <v>3302.508634112982</v>
       </c>
       <c r="W44" t="n">
-        <v>1710.539979299475</v>
+        <v>2897.653179524015</v>
       </c>
       <c r="X44" t="n">
-        <v>1710.539979299475</v>
+        <v>2478.510716103326</v>
       </c>
       <c r="Y44" t="n">
-        <v>1302.253855599128</v>
+        <v>2200.784560794301</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C45" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D45" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E45" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F45" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G45" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H45" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I45" t="n">
-        <v>80.80836689320955</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J45" t="n">
-        <v>405.3666918594219</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K45" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L45" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M45" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N45" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O45" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P45" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q45" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R45" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S45" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T45" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U45" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V45" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W45" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X45" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y45" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>902.0620785577398</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C46" t="n">
-        <v>729.5003670409648</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D46" t="n">
-        <v>563.6223742424875</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E46" t="n">
-        <v>393.8643704932247</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F46" t="n">
-        <v>217.1573164549809</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G46" t="n">
-        <v>143.4046429580766</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H46" t="n">
-        <v>143.4046429580766</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I46" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J46" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K46" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L46" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M46" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N46" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O46" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P46" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q46" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R46" t="n">
-        <v>2649.986482340924</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S46" t="n">
-        <v>2649.986482340924</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T46" t="n">
-        <v>2404.107035919379</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U46" t="n">
-        <v>2125.674035172484</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V46" t="n">
-        <v>1838.718527042915</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W46" t="n">
-        <v>1566.692122629206</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X46" t="n">
-        <v>1321.300367962619</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y46" t="n">
-        <v>1093.880697276727</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>309.4863362707125</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>178.4356412673393</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8052,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>304.8472592415462</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>684.3086716593994</v>
+        <v>76.14915083241453</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,13 +8227,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>618.0868407147311</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>684.3086716593995</v>
+        <v>786.1165328681095</v>
       </c>
       <c r="P5" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8289,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>327.8732572545617</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>656.6598364408385</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>684.3086716593994</v>
+        <v>712.613209508349</v>
       </c>
       <c r="O8" t="n">
-        <v>684.3086716593994</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8535,13 +8537,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>684.3086716593996</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N9" t="n">
-        <v>311.4228197911089</v>
+        <v>619.0754829693642</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8553,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8690,7 +8692,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8702,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>178.4356412673392</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>40.69782849307558</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8771,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8924,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>104.6408607250861</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>684.3086716593995</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8939,16 +8941,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P14" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.69782849307558</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9021,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>379.5169886652534</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9170,10 +9172,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9237,19 +9239,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9410,13 +9412,13 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>980.0845558811002</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9486,22 +9488,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>469.2069973599082</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9711,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9881,22 +9883,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,7 +9956,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10109,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10133,7 +10135,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>164.4273484133669</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10355,13 +10357,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>575.2670899541645</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458549</v>
@@ -10370,7 +10372,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10592,10 +10594,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10904,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>684.3086716593996</v>
+        <v>156.3782581120182</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O41" t="n">
-        <v>684.3086716593994</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P41" t="n">
-        <v>349.2983329370936</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M44" t="n">
-        <v>684.3086716593996</v>
+        <v>879.2599254975249</v>
       </c>
       <c r="N44" t="n">
-        <v>684.3086716593994</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P44" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23258,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>336.3965013409329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>202.2268965983276</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23422,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23464,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>110.0349065174842</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23552,16 +23554,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>163.4212026217394</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>131.6883540136848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23665,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>160.7958207444078</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>120.4463752142712</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>131.2385495991671</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>120.4463752142721</v>
+        <v>120.4463752142708</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24610,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>135.3636110865066</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>160.7958207444067</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>144.134485924087</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>111.4236523045827</v>
       </c>
       <c r="U34" t="n">
-        <v>122.4480280049973</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25321,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>69.71657238081421</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>208.2197249473416</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25625,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>168.331675632329</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>109.607165826772</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>160.7958207444073</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25871,16 +25873,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>305.9384392097674</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -25919,7 +25921,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25928,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>129.2543687074082</v>
       </c>
     </row>
     <row r="45">
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>90.92021546249536</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>638731.8735974825</v>
+        <v>640559.724939286</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>638731.8735974825</v>
+        <v>640559.724939286</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>638731.8735974825</v>
+        <v>640559.724939286</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>412229.0107292506</v>
+        <v>498256.2857758336</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>412229.0107292506</v>
+        <v>498256.2857758335</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>632496.5345410989</v>
+        <v>632496.534541099</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>632496.5345410989</v>
+        <v>632496.534541099</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>632496.5345410991</v>
+        <v>632496.534541099</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>632496.534541099</v>
+        <v>632496.5345410991</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>632496.5345410989</v>
+        <v>632496.534541099</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>412229.0107292506</v>
+        <v>498256.2857758335</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>412229.0107292507</v>
+        <v>498256.2857758336</v>
       </c>
     </row>
   </sheetData>
@@ -26314,16 +26316,16 @@
         <v>308284.7089369848</v>
       </c>
       <c r="C2" t="n">
-        <v>308284.7089369849</v>
+        <v>308284.7089369848</v>
       </c>
       <c r="D2" t="n">
-        <v>308284.7089369849</v>
+        <v>308284.7089369848</v>
       </c>
       <c r="E2" t="n">
-        <v>197442.8824269992</v>
+        <v>238646.855729338</v>
       </c>
       <c r="F2" t="n">
-        <v>197442.8824269991</v>
+        <v>238646.855729338</v>
       </c>
       <c r="G2" t="n">
         <v>302943.1108789776</v>
@@ -26332,7 +26334,7 @@
         <v>302943.1108789776</v>
       </c>
       <c r="I2" t="n">
-        <v>302943.1108789775</v>
+        <v>302943.1108789776</v>
       </c>
       <c r="J2" t="n">
         <v>302943.1108789775</v>
@@ -26341,19 +26343,19 @@
         <v>302943.1108789775</v>
       </c>
       <c r="L2" t="n">
-        <v>302943.1108789775</v>
+        <v>302943.1108789776</v>
       </c>
       <c r="M2" t="n">
         <v>302943.1108789775</v>
       </c>
       <c r="N2" t="n">
-        <v>302943.1108789775</v>
+        <v>302943.1108789776</v>
       </c>
       <c r="O2" t="n">
-        <v>197442.8824269991</v>
+        <v>238646.855729338</v>
       </c>
       <c r="P2" t="n">
-        <v>197442.8824269991</v>
+        <v>238646.855729338</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229327.5749725129</v>
+        <v>307066.9702867178</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>162793.2877984415</v>
+        <v>99213.04363527198</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>179045.2580876519</v>
+        <v>239739.5295867427</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>119310.1515554629</v>
+        <v>80347.02816287833</v>
       </c>
       <c r="C4" t="n">
-        <v>119310.1515554629</v>
+        <v>80347.02816287834</v>
       </c>
       <c r="D4" t="n">
-        <v>119310.1515554629</v>
+        <v>80347.02816287836</v>
       </c>
       <c r="E4" t="n">
-        <v>9284.299089827527</v>
+        <v>11221.82151213933</v>
       </c>
       <c r="F4" t="n">
-        <v>9284.299089827527</v>
+        <v>11221.82151213932</v>
       </c>
       <c r="G4" t="n">
         <v>14245.20557049264</v>
@@ -26454,10 +26456,10 @@
         <v>14245.20557049264</v>
       </c>
       <c r="O4" t="n">
-        <v>9284.299089827529</v>
+        <v>11221.82151213932</v>
       </c>
       <c r="P4" t="n">
-        <v>9284.299089827527</v>
+        <v>11221.82151213932</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75233.56723689148</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="C5" t="n">
-        <v>75233.56723689148</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="D5" t="n">
-        <v>75233.56723689148</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="E5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="F5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26494,7 +26496,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="L5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="P5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952316</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-115586.5848278825</v>
+        <v>-168466.7983921344</v>
       </c>
       <c r="C6" t="n">
-        <v>113740.9901446306</v>
+        <v>138600.1718945833</v>
       </c>
       <c r="D6" t="n">
-        <v>113740.9901446305</v>
+        <v>138600.1718945833</v>
       </c>
       <c r="E6" t="n">
-        <v>146552.6161002802</v>
+        <v>171715.1253376755</v>
       </c>
       <c r="F6" t="n">
-        <v>146552.6161002801</v>
+        <v>171715.1253376755</v>
       </c>
       <c r="G6" t="n">
-        <v>48186.37890425096</v>
+        <v>111766.6230674204</v>
       </c>
       <c r="H6" t="n">
         <v>210979.6667026924</v>
       </c>
       <c r="I6" t="n">
-        <v>210979.6667026923</v>
+        <v>210979.6667026924</v>
       </c>
       <c r="J6" t="n">
-        <v>31934.40861504043</v>
+        <v>-28759.86288405035</v>
       </c>
       <c r="K6" t="n">
-        <v>210979.6667026923</v>
+        <v>210979.6667026924</v>
       </c>
       <c r="L6" t="n">
-        <v>210979.6667026923</v>
+        <v>210979.6667026924</v>
       </c>
       <c r="M6" t="n">
         <v>210979.6667026923</v>
       </c>
       <c r="N6" t="n">
-        <v>210979.6667026923</v>
+        <v>210979.6667026924</v>
       </c>
       <c r="O6" t="n">
-        <v>146552.6161002801</v>
+        <v>171715.1253376755</v>
       </c>
       <c r="P6" t="n">
-        <v>146552.6161002801</v>
+        <v>171715.1253376756</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="C4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="D4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="E4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="F4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>593.9518317253459</v>
+        <v>361.9791073399565</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447887</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>593.9518317253459</v>
+        <v>361.9791073399565</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348.2210134521091</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>88.05312813041195</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27543,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>40.15930123557294</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>23.4236964984463</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27616,16 +27618,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>61.98216044089315</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27634,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>163.8338241008708</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27825,16 +27827,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>111.4236523045818</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>143.6516710866791</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,13 +27915,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>191.3216453413938</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>201.8142751191963</v>
       </c>
     </row>
     <row r="9">
@@ -28020,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28062,7 +28064,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>143.6516710866786</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>212.132339546147</v>
       </c>
     </row>
     <row r="11">
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>309.4863362707125</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>178.4356412673393</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34772,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,16 +34792,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>304.8472592415462</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>684.3086716593994</v>
+        <v>76.14915083241453</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34863,7 +34865,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -34933,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,13 +34947,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>618.0868407147311</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>684.3086716593995</v>
+        <v>786.1165328681095</v>
       </c>
       <c r="P5" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35009,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>327.8732572545617</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35106,7 +35108,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>656.6598364408385</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>684.3086716593994</v>
+        <v>712.613209508349</v>
       </c>
       <c r="O8" t="n">
-        <v>684.3086716593994</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -35255,13 +35257,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>684.3086716593996</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N9" t="n">
-        <v>311.4228197911089</v>
+        <v>619.0754829693642</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35273,7 +35275,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35343,7 +35345,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35410,7 +35412,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35422,16 +35424,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>178.4356412673392</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>40.69782849307558</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35491,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>104.6408607250861</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>684.3086716593995</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -35659,16 +35661,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P14" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.69782849307558</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35741,10 +35743,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>379.5169886652534</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35890,10 +35892,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35978,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36130,13 +36132,13 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>980.0845558811002</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
@@ -36206,22 +36208,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>469.2069973599082</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,7 +36691,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36829,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36853,7 +36855,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,13 +36928,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>164.4273484133669</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,22 +37068,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>575.2670899541645</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458546</v>
@@ -37090,7 +37092,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37312,10 +37314,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37637,10 +37639,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37698,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>684.3086716593996</v>
+        <v>156.3782581120182</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O41" t="n">
-        <v>684.3086716593994</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P41" t="n">
-        <v>349.2983329370936</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M44" t="n">
-        <v>684.3086716593996</v>
+        <v>879.2599254975249</v>
       </c>
       <c r="N44" t="n">
-        <v>684.3086716593994</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P44" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1015143.139471568</v>
+        <v>1014350.228533707</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16877859.47655641</v>
+        <v>16877859.47655642</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6944676.479133798</v>
+        <v>6944676.479133797</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>343.497558846888</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -712,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>290.7943486416816</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -828,10 +828,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>90.30617524481274</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>219.5141406214753</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -907,7 +907,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>320.3094964598583</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>195.1569564646409</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1068,7 +1068,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1104,10 +1104,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>177.9326461527348</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1116,7 +1116,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>125.6544692828923</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1135,10 +1135,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
@@ -1150,7 +1150,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>311.9468718695872</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1201,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>202.3889873441468</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1302,16 +1302,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022785</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.01313443288583</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1384,10 +1384,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>195.1569564646411</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1545,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1587,7 +1587,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>122.1591039832984</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1596,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,10 +1609,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>401.2086225102784</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>195.5695779437723</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1779,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>3.139541480022785</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1861,7 +1861,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -1897,7 +1897,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2004,13 +2004,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>39.5975448024402</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2019,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2089,7 +2089,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932889</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2493,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>18.05677735225841</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2778,7 +2778,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>103.3456594571955</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2958,7 +2958,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>47.61404849749811</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2970,7 +2970,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3012,10 +3012,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>125.1716544454844</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3204,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
-        <v>131.9969996527466</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
@@ -3523,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3723,7 +3723,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>61.08641542222974</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>313.9815894681123</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3808,7 +3808,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>8.392080423408682</v>
       </c>
     </row>
     <row r="42">
@@ -3915,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
-        <v>35.20092700998642</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3979,25 +3979,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>9.893273208239815</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>274.9488937559349</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2006.541971984245</v>
+        <v>2098.127098314996</v>
       </c>
       <c r="C2" t="n">
-        <v>1568.399499167669</v>
+        <v>1659.98462549842</v>
       </c>
       <c r="D2" t="n">
-        <v>1221.432268009196</v>
+        <v>1224.074840672864</v>
       </c>
       <c r="E2" t="n">
-        <v>787.6575231674911</v>
+        <v>790.3000958311591</v>
       </c>
       <c r="F2" t="n">
-        <v>763.830497617103</v>
+        <v>362.4326662403669</v>
       </c>
       <c r="G2" t="n">
         <v>362.4326662403669</v>
@@ -4330,19 +4330,19 @@
         <v>73.30251168358311</v>
       </c>
       <c r="J2" t="n">
-        <v>379.6939845915884</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K2" t="n">
+        <v>907.652803641761</v>
+      </c>
+      <c r="L2" t="n">
         <v>1214.044276549766</v>
       </c>
-      <c r="L2" t="n">
-        <v>2121.162858634107</v>
-      </c>
       <c r="M2" t="n">
-        <v>2121.162858634107</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="N2" t="n">
-        <v>2121.162858634107</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O2" t="n">
         <v>2121.162858634107</v>
@@ -4360,22 +4360,22 @@
         <v>3665.125584179155</v>
       </c>
       <c r="T2" t="n">
-        <v>3665.125584179155</v>
+        <v>3445.058357052194</v>
       </c>
       <c r="U2" t="n">
-        <v>3665.125584179155</v>
+        <v>3185.836054369211</v>
       </c>
       <c r="V2" t="n">
-        <v>3665.125584179155</v>
+        <v>2823.219104303037</v>
       </c>
       <c r="W2" t="n">
-        <v>3260.270129590189</v>
+        <v>2822.404053754474</v>
       </c>
       <c r="X2" t="n">
-        <v>2841.1276661695</v>
+        <v>2528.672388459846</v>
       </c>
       <c r="Y2" t="n">
-        <v>2432.841542469153</v>
+        <v>2120.3862647595</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>73.30251168358311</v>
       </c>
       <c r="I3" t="n">
-        <v>73.30251168358311</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J3" t="n">
-        <v>73.30251168358311</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K3" t="n">
-        <v>754.0360317539604</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L3" t="n">
-        <v>1661.154613838301</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M3" t="n">
-        <v>1661.154613838301</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N3" t="n">
-        <v>1661.154613838301</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O3" t="n">
-        <v>1661.154613838301</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P3" t="n">
-        <v>1736.542273162392</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q3" t="n">
-        <v>1736.542273162392</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R3" t="n">
         <v>1736.542273162392</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1012.458497985839</v>
+        <v>761.378527806567</v>
       </c>
       <c r="C4" t="n">
-        <v>839.8967864690638</v>
+        <v>588.816816289792</v>
       </c>
       <c r="D4" t="n">
-        <v>674.0187936705865</v>
+        <v>422.9388234913147</v>
       </c>
       <c r="E4" t="n">
-        <v>504.2607899213239</v>
+        <v>253.1808197420519</v>
       </c>
       <c r="F4" t="n">
-        <v>327.5537358830801</v>
+        <v>161.9624609089078</v>
       </c>
       <c r="G4" t="n">
         <v>161.9624609089078</v>
@@ -4530,10 +4530,10 @@
         <v>1426.008571878034</v>
       </c>
       <c r="X4" t="n">
-        <v>1204.277116704826</v>
+        <v>1180.616817211446</v>
       </c>
       <c r="Y4" t="n">
-        <v>1204.277116704826</v>
+        <v>953.1971465255542</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1809.413733131072</v>
+        <v>1705.091249459329</v>
       </c>
       <c r="C5" t="n">
-        <v>1371.271260314496</v>
+        <v>1266.948776642752</v>
       </c>
       <c r="D5" t="n">
-        <v>935.3614754889402</v>
+        <v>831.0389918171968</v>
       </c>
       <c r="E5" t="n">
-        <v>501.5867306472354</v>
+        <v>397.264246975492</v>
       </c>
       <c r="F5" t="n">
         <v>73.7193010564431</v>
@@ -4573,13 +4573,13 @@
         <v>1342.907491094679</v>
       </c>
       <c r="L5" t="n">
-        <v>1342.907491094679</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="M5" t="n">
-        <v>1342.907491094679</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="N5" t="n">
-        <v>1342.907491094679</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="O5" t="n">
         <v>2121.162858634107</v>
@@ -4594,25 +4594,25 @@
         <v>3665.125584179155</v>
       </c>
       <c r="S5" t="n">
-        <v>3665.125584179155</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T5" t="n">
-        <v>3665.125584179155</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="U5" t="n">
-        <v>3665.125584179155</v>
+        <v>3322.251407680009</v>
       </c>
       <c r="V5" t="n">
-        <v>3467.997345325983</v>
+        <v>2959.634457613835</v>
       </c>
       <c r="W5" t="n">
-        <v>3063.141890737016</v>
+        <v>2958.819407065273</v>
       </c>
       <c r="X5" t="n">
-        <v>2643.999427316327</v>
+        <v>2539.676943644583</v>
       </c>
       <c r="Y5" t="n">
-        <v>2235.71330361598</v>
+        <v>2131.390819944237</v>
       </c>
     </row>
     <row r="6">
@@ -4643,13 +4643,13 @@
         <v>73.30251168358311</v>
       </c>
       <c r="I6" t="n">
-        <v>73.30251168358311</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J6" t="n">
-        <v>73.30251168358311</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K6" t="n">
-        <v>754.0360317539604</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L6" t="n">
         <v>1078.630556435977</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1152.360672295464</v>
+        <v>986.7693973212922</v>
       </c>
       <c r="C7" t="n">
-        <v>979.7989607786893</v>
+        <v>814.2076858045172</v>
       </c>
       <c r="D7" t="n">
-        <v>813.920967980212</v>
+        <v>648.3296930060399</v>
       </c>
       <c r="E7" t="n">
-        <v>644.1629642309493</v>
+        <v>478.5716892567771</v>
       </c>
       <c r="F7" t="n">
-        <v>467.4559101927056</v>
+        <v>301.8646352185332</v>
       </c>
       <c r="G7" t="n">
         <v>301.8646352185332</v>
@@ -4752,25 +4752,25 @@
         <v>2668.544300291755</v>
       </c>
       <c r="S7" t="n">
-        <v>2509.302931589751</v>
+        <v>2668.544300291755</v>
       </c>
       <c r="T7" t="n">
-        <v>2509.302931589751</v>
+        <v>2488.814354682931</v>
       </c>
       <c r="U7" t="n">
-        <v>2230.869930842856</v>
+        <v>2210.381353936037</v>
       </c>
       <c r="V7" t="n">
-        <v>1943.914422713287</v>
+        <v>1923.425845806467</v>
       </c>
       <c r="W7" t="n">
-        <v>1816.990716366931</v>
+        <v>1651.399441392759</v>
       </c>
       <c r="X7" t="n">
-        <v>1571.598961700343</v>
+        <v>1406.007686726171</v>
       </c>
       <c r="Y7" t="n">
-        <v>1344.179291014452</v>
+        <v>1178.588016040279</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2210.394775134949</v>
+        <v>1691.444121610924</v>
       </c>
       <c r="C8" t="n">
-        <v>1772.252302318372</v>
+        <v>1657.342052834751</v>
       </c>
       <c r="D8" t="n">
-        <v>1336.342517492816</v>
+        <v>1625.4726720496</v>
       </c>
       <c r="E8" t="n">
-        <v>902.5677726511115</v>
+        <v>1191.697927207895</v>
       </c>
       <c r="F8" t="n">
-        <v>474.7003430603193</v>
+        <v>763.830497617103</v>
       </c>
       <c r="G8" t="n">
-        <v>73.30251168358311</v>
+        <v>362.4326662403669</v>
       </c>
       <c r="H8" t="n">
         <v>73.30251168358311</v>
@@ -4804,16 +4804,16 @@
         <v>73.30251168358311</v>
       </c>
       <c r="J8" t="n">
-        <v>508.557199136501</v>
+        <v>379.6939845915884</v>
       </c>
       <c r="K8" t="n">
-        <v>508.557199136501</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="L8" t="n">
-        <v>508.557199136501</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="M8" t="n">
-        <v>508.557199136501</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="N8" t="n">
         <v>1214.044276549766</v>
@@ -4840,16 +4840,16 @@
         <v>3665.125584179155</v>
       </c>
       <c r="V8" t="n">
-        <v>3665.125584179155</v>
+        <v>3350.027733805835</v>
       </c>
       <c r="W8" t="n">
-        <v>3260.270129590189</v>
+        <v>2945.172279216868</v>
       </c>
       <c r="X8" t="n">
-        <v>2841.1276661695</v>
+        <v>2526.029815796179</v>
       </c>
       <c r="Y8" t="n">
-        <v>2636.694345619856</v>
+        <v>2117.743692095832</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>99.3661848440407</v>
       </c>
       <c r="J9" t="n">
-        <v>99.3661848440407</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K9" t="n">
-        <v>99.3661848440407</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L9" t="n">
-        <v>99.3661848440407</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M9" t="n">
-        <v>1006.484766928382</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N9" t="n">
-        <v>1619.369495068052</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O9" t="n">
-        <v>1619.369495068052</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P9" t="n">
-        <v>1619.369495068052</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q9" t="n">
         <v>1619.369495068052</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>975.6536182572206</v>
+        <v>761.378527806567</v>
       </c>
       <c r="C10" t="n">
-        <v>803.0919067404456</v>
+        <v>588.816816289792</v>
       </c>
       <c r="D10" t="n">
-        <v>637.2139139419683</v>
+        <v>422.9388234913147</v>
       </c>
       <c r="E10" t="n">
-        <v>467.4559101927056</v>
+        <v>253.1808197420519</v>
       </c>
       <c r="F10" t="n">
-        <v>467.4559101927056</v>
+        <v>76.47376570380814</v>
       </c>
       <c r="G10" t="n">
-        <v>301.8646352185332</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H10" t="n">
-        <v>161.9624609089078</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I10" t="n">
         <v>73.30251168358311</v>
@@ -5007,7 +5007,7 @@
         <v>1180.616817211446</v>
       </c>
       <c r="Y10" t="n">
-        <v>1167.472236976208</v>
+        <v>953.1971465255542</v>
       </c>
     </row>
     <row r="11">
@@ -5032,7 +5032,7 @@
         <v>270.8475399096159</v>
       </c>
       <c r="G11" t="n">
-        <v>73.7193010564431</v>
+        <v>270.8475399096159</v>
       </c>
       <c r="H11" t="n">
         <v>73.7193010564431</v>
@@ -5041,28 +5041,28 @@
         <v>73.30251168358311</v>
       </c>
       <c r="J11" t="n">
-        <v>508.557199136501</v>
+        <v>379.6939845915884</v>
       </c>
       <c r="K11" t="n">
-        <v>1342.907491094679</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="L11" t="n">
-        <v>1342.907491094679</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="M11" t="n">
-        <v>1342.907491094679</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="N11" t="n">
-        <v>1342.907491094679</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O11" t="n">
-        <v>2250.02607317902</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P11" t="n">
-        <v>3078.335948012416</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q11" t="n">
-        <v>3624.83473397101</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R11" t="n">
         <v>3665.125584179155</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>923.7985487605143</v>
+        <v>1152.360672295464</v>
       </c>
       <c r="C13" t="n">
-        <v>751.2368372437393</v>
+        <v>979.7989607786893</v>
       </c>
       <c r="D13" t="n">
-        <v>585.358844445262</v>
+        <v>813.920967980212</v>
       </c>
       <c r="E13" t="n">
-        <v>415.6008406959992</v>
+        <v>644.1629642309493</v>
       </c>
       <c r="F13" t="n">
-        <v>238.8937866577554</v>
+        <v>467.4559101927056</v>
       </c>
       <c r="G13" t="n">
-        <v>73.30251168358311</v>
+        <v>301.8646352185332</v>
       </c>
       <c r="H13" t="n">
-        <v>73.30251168358311</v>
+        <v>161.9624609089078</v>
       </c>
       <c r="I13" t="n">
         <v>73.30251168358311</v>
@@ -5223,28 +5223,28 @@
         <v>2689.962121586383</v>
       </c>
       <c r="R13" t="n">
-        <v>2689.962121586383</v>
+        <v>2668.544300291755</v>
       </c>
       <c r="S13" t="n">
-        <v>2671.722952543698</v>
+        <v>2509.302931589751</v>
       </c>
       <c r="T13" t="n">
-        <v>2425.843506122153</v>
+        <v>2263.423485168206</v>
       </c>
       <c r="U13" t="n">
-        <v>2147.410505375259</v>
+        <v>1984.990484421312</v>
       </c>
       <c r="V13" t="n">
-        <v>1860.454997245689</v>
+        <v>1861.597450094748</v>
       </c>
       <c r="W13" t="n">
-        <v>1588.428592831981</v>
+        <v>1589.571045681039</v>
       </c>
       <c r="X13" t="n">
-        <v>1343.036838165393</v>
+        <v>1344.179291014452</v>
       </c>
       <c r="Y13" t="n">
-        <v>1115.617167479501</v>
+        <v>1344.179291014452</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1808.996943758212</v>
+        <v>1340.205920974947</v>
       </c>
       <c r="C14" t="n">
-        <v>1370.854470941636</v>
+        <v>1340.205920974947</v>
       </c>
       <c r="D14" t="n">
         <v>934.9446861160802</v>
@@ -5278,52 +5278,52 @@
         <v>73.30251168358311</v>
       </c>
       <c r="J14" t="n">
-        <v>508.557199136501</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K14" t="n">
-        <v>1342.907491094679</v>
+        <v>907.652803641761</v>
       </c>
       <c r="L14" t="n">
-        <v>1342.907491094679</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="M14" t="n">
-        <v>1342.907491094679</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="N14" t="n">
-        <v>1342.907491094679</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="O14" t="n">
-        <v>2250.02607317902</v>
+        <v>2290.316923387164</v>
       </c>
       <c r="P14" t="n">
-        <v>3078.335948012416</v>
+        <v>3118.62679822056</v>
       </c>
       <c r="Q14" t="n">
-        <v>3624.83473397101</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="R14" t="n">
         <v>3665.125584179155</v>
       </c>
       <c r="S14" t="n">
-        <v>3665.125584179155</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T14" t="n">
-        <v>3665.125584179155</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="U14" t="n">
-        <v>3665.125584179155</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="V14" t="n">
-        <v>3467.580555953123</v>
+        <v>2998.789533169857</v>
       </c>
       <c r="W14" t="n">
-        <v>3062.725101364156</v>
+        <v>2593.934078580891</v>
       </c>
       <c r="X14" t="n">
-        <v>2643.582637943467</v>
+        <v>2174.791615160202</v>
       </c>
       <c r="Y14" t="n">
-        <v>2235.29651424312</v>
+        <v>1766.505491459855</v>
       </c>
     </row>
     <row r="15">
@@ -5375,7 +5375,7 @@
         <v>423.924509810253</v>
       </c>
       <c r="P15" t="n">
-        <v>1243.647676289451</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q15" t="n">
         <v>1619.369495068052</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>761.378527806567</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C16" t="n">
-        <v>588.816816289792</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D16" t="n">
-        <v>422.9388234913147</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E16" t="n">
-        <v>253.1808197420519</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F16" t="n">
-        <v>76.47376570380814</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G16" t="n">
         <v>73.30251168358311</v>
@@ -5460,28 +5460,28 @@
         <v>2689.962121586383</v>
       </c>
       <c r="R16" t="n">
-        <v>2668.544300291755</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S16" t="n">
-        <v>2509.302931589751</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T16" t="n">
-        <v>2263.423485168206</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U16" t="n">
-        <v>1984.990484421312</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V16" t="n">
-        <v>1698.034976291742</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W16" t="n">
-        <v>1426.008571878034</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X16" t="n">
-        <v>1180.616817211446</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y16" t="n">
-        <v>953.1971465255542</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5524,7 +5524,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5545,22 +5545,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5597,10 +5597,10 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
         <v>1107.588885023173</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>750.3393363912985</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>584.4613435928212</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
         <v>1221.073045167952</v>
@@ -5761,13 +5761,13 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>3417.209496257024</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
@@ -5779,25 +5779,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5828,22 +5828,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
         <v>1107.588885023173</v>
@@ -5977,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6028,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6071,19 +6071,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3365.117609755799</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>3192.555898239023</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>3026.677905440546</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>2856.919901691283</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>2680.21284765304</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>2514.621572678867</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>5113.042013538981</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>4867.162567117437</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>4588.729566370543</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>4301.774058240973</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>4029.747653827265</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>3784.355899160677</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>3556.936228474786</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4294.449917128814</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6265,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6308,19 +6308,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6411,19 +6411,19 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
         <v>1371.99516675259</v>
@@ -6451,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6466,22 +6466,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>1632.322702740236</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>1632.322702740236</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2758.053686176683</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
         <v>5113.04201353898</v>
@@ -6502,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6545,19 +6545,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057297</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W31" t="n">
-        <v>1600.55729028754</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6782,19 +6782,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2404.930957497405</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6946,22 +6946,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
         <v>5029.390139722817</v>
@@ -7019,19 +7019,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3575.440564248063</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>3402.878852731288</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>3237.000859932811</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>3067.242856183548</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>2890.535802145304</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>2724.944527171132</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>5113.042013538981</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>4867.162567117437</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>4588.729566370543</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>4301.774058240973</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>4240.070608319529</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>3994.678853652942</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>3767.25918296705</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1080.983618291964</v>
+        <v>2210.811564507809</v>
       </c>
       <c r="C41" t="n">
-        <v>1080.983618291964</v>
+        <v>1772.669091691232</v>
       </c>
       <c r="D41" t="n">
-        <v>1080.983618291964</v>
+        <v>1336.759306865676</v>
       </c>
       <c r="E41" t="n">
-        <v>1080.983618291964</v>
+        <v>902.9845620239714</v>
       </c>
       <c r="F41" t="n">
-        <v>763.830497617103</v>
+        <v>475.1171324331792</v>
       </c>
       <c r="G41" t="n">
-        <v>362.4326662403669</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="H41" t="n">
-        <v>73.30251168358311</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I41" t="n">
         <v>73.30251168358311</v>
       </c>
       <c r="J41" t="n">
-        <v>73.30251168358311</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K41" t="n">
-        <v>228.1169872144811</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L41" t="n">
-        <v>1135.235569298822</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="M41" t="n">
-        <v>1135.235569298822</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="N41" t="n">
-        <v>2042.354151383163</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="O41" t="n">
-        <v>2949.472733467504</v>
+        <v>2290.316923387164</v>
       </c>
       <c r="P41" t="n">
-        <v>2949.472733467504</v>
+        <v>3118.62679822056</v>
       </c>
       <c r="Q41" t="n">
-        <v>3495.971519426098</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="R41" t="n">
         <v>3665.125584179155</v>
       </c>
       <c r="S41" t="n">
-        <v>3581.473710362992</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T41" t="n">
-        <v>3361.406483236031</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U41" t="n">
-        <v>3102.184180553048</v>
+        <v>3405.903281496172</v>
       </c>
       <c r="V41" t="n">
-        <v>2739.567230486874</v>
+        <v>3043.286331429998</v>
       </c>
       <c r="W41" t="n">
-        <v>2334.711775897908</v>
+        <v>2638.430876841032</v>
       </c>
       <c r="X41" t="n">
-        <v>1915.569312477218</v>
+        <v>2219.288413420343</v>
       </c>
       <c r="Y41" t="n">
-        <v>1507.283188776872</v>
+        <v>2210.811564507809</v>
       </c>
     </row>
     <row r="42">
@@ -7493,19 +7493,19 @@
         <v>423.924509810253</v>
       </c>
       <c r="K42" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L42" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M42" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N42" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O42" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P42" t="n">
         <v>1078.630556435977</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1152.360672295464</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C43" t="n">
-        <v>979.7989607786893</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D43" t="n">
-        <v>813.920967980212</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E43" t="n">
-        <v>644.1629642309493</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F43" t="n">
-        <v>467.4559101927056</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G43" t="n">
-        <v>301.8646352185332</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H43" t="n">
-        <v>161.9624609089078</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I43" t="n">
         <v>73.30251168358311</v>
@@ -7596,25 +7596,25 @@
         <v>2689.962121586383</v>
       </c>
       <c r="S43" t="n">
-        <v>2689.962121586383</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T43" t="n">
-        <v>2654.405629657103</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U43" t="n">
-        <v>2375.972628910209</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V43" t="n">
-        <v>2089.017120780639</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W43" t="n">
-        <v>1816.990716366931</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X43" t="n">
-        <v>1571.598961700343</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y43" t="n">
-        <v>1344.179291014452</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1774.484990309393</v>
+        <v>1643.925021918072</v>
       </c>
       <c r="C44" t="n">
-        <v>1336.342517492816</v>
+        <v>1633.931816657223</v>
       </c>
       <c r="D44" t="n">
-        <v>1336.342517492816</v>
+        <v>1198.022031831668</v>
       </c>
       <c r="E44" t="n">
-        <v>902.5677726511115</v>
+        <v>764.247286989963</v>
       </c>
       <c r="F44" t="n">
-        <v>474.7003430603193</v>
+        <v>764.247286989963</v>
       </c>
       <c r="G44" t="n">
-        <v>73.30251168358311</v>
+        <v>362.8494556132268</v>
       </c>
       <c r="H44" t="n">
-        <v>73.30251168358311</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I44" t="n">
         <v>73.30251168358311</v>
       </c>
       <c r="J44" t="n">
-        <v>73.30251168358311</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K44" t="n">
-        <v>73.30251168358311</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L44" t="n">
-        <v>980.4210937679239</v>
+        <v>1383.198341302823</v>
       </c>
       <c r="M44" t="n">
-        <v>1850.888420010474</v>
+        <v>1383.198341302823</v>
       </c>
       <c r="N44" t="n">
-        <v>2758.007002094815</v>
+        <v>1383.198341302823</v>
       </c>
       <c r="O44" t="n">
-        <v>3665.125584179155</v>
+        <v>2290.316923387164</v>
       </c>
       <c r="P44" t="n">
-        <v>3665.125584179155</v>
+        <v>3118.62679822056</v>
       </c>
       <c r="Q44" t="n">
         <v>3665.125584179155</v>
@@ -7693,7 +7693,7 @@
         <v>2478.510716103326</v>
       </c>
       <c r="Y44" t="n">
-        <v>2200.784560794301</v>
+        <v>2070.224592402979</v>
       </c>
     </row>
     <row r="45">
@@ -7730,19 +7730,19 @@
         <v>423.924509810253</v>
       </c>
       <c r="K45" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L45" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M45" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N45" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O45" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P45" t="n">
         <v>1078.630556435977</v>
@@ -7978,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>309.4863362707125</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L2" t="n">
+        <v>309.4863362707125</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>916.2813960447888</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>836.6766412458549</v>
@@ -8054,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>916.2813960447889</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>76.14915083241453</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8221,7 +8221,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>786.1165328681095</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,7 +8230,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>786.1165328681095</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>836.6766412458549</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L6" t="n">
-        <v>327.8732572545617</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>309.4863362707125</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>712.613209508349</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>916.2813960447888</v>
@@ -8531,7 +8531,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8540,19 +8540,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>916.2813960447888</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>619.0754829693642</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>309.4863362707125</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -8713,7 +8713,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>40.69782849307558</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>916.2813960447888</v>
+        <v>480.3490279404664</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -8950,7 +8950,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>40.69782849307558</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q15" t="n">
-        <v>379.5169886652534</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9172,10 +9172,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9245,13 +9245,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9409,16 +9409,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>980.0845558811002</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9719,22 +9719,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9883,22 +9883,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>826.8607034446131</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,22 +9956,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10114,13 +10114,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
-        <v>702.7389601124028</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -10129,10 +10129,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10193,22 +10193,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10357,13 +10357,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>575.2670899541645</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458549</v>
@@ -10372,7 +10372,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,22 +10430,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10594,10 +10594,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10667,22 +10667,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,22 +10904,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>156.3782581120182</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>916.2813960447888</v>
@@ -11071,19 +11071,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>916.2813960447888</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>916.2813960447888</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,22 +11141,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>661.3192390158823</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>916.2813960447888</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="M44" t="n">
-        <v>879.2599254975249</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>916.2813960447888</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>916.2813960447888</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11378,22 +11378,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>661.3192390158823</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>202.2268965983276</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>91.0818965465748</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>161.9268490649755</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23497,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>30.34206446702154</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>163.4212026217394</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>160.7958207444078</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>131.2385495991671</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>120.4463752142708</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>120.446375214272</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>144.134485924087</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
-        <v>111.4236523045827</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>208.2197249473416</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>109.607165826772</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>395.8111820399344</v>
       </c>
     </row>
     <row r="42">
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
-        <v>208.2197249473429</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25867,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>423.8677748801711</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>129.2543687074082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>498256.2857758336</v>
+        <v>498256.2857758335</v>
       </c>
     </row>
     <row r="6">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>632496.534541099</v>
+        <v>632496.5345410989</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>632496.5345410991</v>
+        <v>632496.534541099</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>498256.2857758336</v>
+        <v>498256.2857758335</v>
       </c>
     </row>
   </sheetData>
@@ -26319,7 +26319,7 @@
         <v>308284.7089369848</v>
       </c>
       <c r="D2" t="n">
-        <v>308284.7089369848</v>
+        <v>308284.7089369849</v>
       </c>
       <c r="E2" t="n">
         <v>238646.855729338</v>
@@ -26328,13 +26328,13 @@
         <v>238646.855729338</v>
       </c>
       <c r="G2" t="n">
-        <v>302943.1108789776</v>
+        <v>302943.1108789775</v>
       </c>
       <c r="H2" t="n">
         <v>302943.1108789776</v>
       </c>
       <c r="I2" t="n">
-        <v>302943.1108789776</v>
+        <v>302943.1108789775</v>
       </c>
       <c r="J2" t="n">
         <v>302943.1108789775</v>
@@ -26343,13 +26343,13 @@
         <v>302943.1108789775</v>
       </c>
       <c r="L2" t="n">
+        <v>302943.1108789775</v>
+      </c>
+      <c r="M2" t="n">
         <v>302943.1108789776</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>302943.1108789775</v>
-      </c>
-      <c r="N2" t="n">
-        <v>302943.1108789776</v>
       </c>
       <c r="O2" t="n">
         <v>238646.855729338</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80347.02816287833</v>
+        <v>80347.02816287839</v>
       </c>
       <c r="C4" t="n">
-        <v>80347.02816287834</v>
+        <v>80347.02816287837</v>
       </c>
       <c r="D4" t="n">
-        <v>80347.02816287836</v>
+        <v>80347.02816287839</v>
       </c>
       <c r="E4" t="n">
-        <v>11221.82151213933</v>
+        <v>11221.82151213932</v>
       </c>
       <c r="F4" t="n">
         <v>11221.82151213932</v>
@@ -26496,7 +26496,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
         <v>77718.23860579252</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-168466.7983921344</v>
+        <v>-168466.7983921345</v>
       </c>
       <c r="C6" t="n">
         <v>138600.1718945833</v>
       </c>
       <c r="D6" t="n">
-        <v>138600.1718945833</v>
+        <v>138600.1718945834</v>
       </c>
       <c r="E6" t="n">
-        <v>171715.1253376755</v>
+        <v>171412.3520628597</v>
       </c>
       <c r="F6" t="n">
-        <v>171715.1253376755</v>
+        <v>171412.3520628597</v>
       </c>
       <c r="G6" t="n">
-        <v>111766.6230674204</v>
+        <v>111743.3987280377</v>
       </c>
       <c r="H6" t="n">
-        <v>210979.6667026924</v>
+        <v>210956.4423633098</v>
       </c>
       <c r="I6" t="n">
-        <v>210979.6667026924</v>
+        <v>210956.4423633097</v>
       </c>
       <c r="J6" t="n">
-        <v>-28759.86288405035</v>
+        <v>-28783.08722343301</v>
       </c>
       <c r="K6" t="n">
-        <v>210979.6667026924</v>
+        <v>210956.4423633097</v>
       </c>
       <c r="L6" t="n">
-        <v>210979.6667026924</v>
+        <v>210956.4423633097</v>
       </c>
       <c r="M6" t="n">
-        <v>210979.6667026923</v>
+        <v>210956.4423633098</v>
       </c>
       <c r="N6" t="n">
-        <v>210979.6667026924</v>
+        <v>210956.4423633097</v>
       </c>
       <c r="O6" t="n">
-        <v>171715.1253376755</v>
+        <v>171412.3520628597</v>
       </c>
       <c r="P6" t="n">
-        <v>171715.1253376756</v>
+        <v>171412.3520628596</v>
       </c>
     </row>
   </sheetData>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>88.05312813041195</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>124.1566901448008</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27548,10 +27548,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>84.6338082530486</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -27602,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>23.4236964984463</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>103.279258835026</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>163.8338241008708</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27824,10 +27824,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>65.48800580459445</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>143.6516710866791</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27912,7 +27912,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>47.04390869592453</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>201.8142751191963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>160.7958207444078</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>212.132339546147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34698,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>309.4863362707125</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L2" t="n">
+        <v>309.4863362707125</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>916.2813960447888</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>836.6766412458551</v>
@@ -34774,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>916.2813960447889</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34795,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>76.14915083241453</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34941,7 +34941,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>786.1165328681095</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,7 +34950,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>786.1165328681095</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>836.6766412458551</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L6" t="n">
-        <v>327.8732572545617</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35172,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>309.4863362707125</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35184,7 +35184,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>712.613209508349</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>916.2813960447888</v>
@@ -35251,7 +35251,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>916.2813960447888</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>619.0754829693642</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>309.4863362707125</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -35427,13 +35427,13 @@
         <v>916.2813960447888</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>40.69782849307558</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35661,16 +35661,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>916.2813960447888</v>
+        <v>480.3490279404664</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>552.0189757157527</v>
       </c>
       <c r="R14" t="n">
-        <v>40.69782849307558</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35743,10 +35743,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q15" t="n">
-        <v>379.5169886652534</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35892,10 +35892,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35965,13 +35965,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -36129,16 +36129,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>980.0845558811002</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36214,7 +36214,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36530,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>826.8607034446131</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36834,13 +36834,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
-        <v>702.7389601124028</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -36849,10 +36849,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37068,22 +37068,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>575.2670899541645</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458546</v>
@@ -37092,7 +37092,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37314,10 +37314,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37387,22 +37387,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
       </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
       <c r="Q39" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37715,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>156.3782581120182</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>916.2813960447888</v>
@@ -37791,19 +37791,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>916.2813960447888</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>916.2813960447888</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>552.0189757157527</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>661.3192390158823</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>916.2813960447888</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="M44" t="n">
-        <v>879.2599254975249</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>916.2813960447888</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>916.2813960447888</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157527</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>661.3192390158823</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
